--- a/ddr3测试记录.xlsx
+++ b/ddr3测试记录.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\self_learning\hulang\hulang001_plus\2_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7ADA5F-9BBE-4FE1-9667-9767CD7AFCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7654F931-408D-4A20-A6C6-35F557D5339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="4335" windowWidth="14580" windowHeight="9585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
+    <sheet name="axi4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>测试模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +105,61 @@
   </si>
   <si>
     <t>0/1交替地址，不等待读返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outstanding及读间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待读返回？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burst长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递增地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全0地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全1地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1交替地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode=1</t>
+  </si>
+  <si>
+    <t>mode=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乒乓写读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可校验（未等待读返回）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180w~590w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,4 +944,871 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3CF698-47FC-416B-8F9D-8EBA35508DE2}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1394960</v>
+      </c>
+      <c r="H2">
+        <v>696362</v>
+      </c>
+      <c r="I2">
+        <v>696362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3">
+        <v>514966</v>
+      </c>
+      <c r="H3">
+        <v>738996</v>
+      </c>
+      <c r="I3">
+        <v>738996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>256</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4">
+        <v>401625</v>
+      </c>
+      <c r="H4">
+        <v>370888</v>
+      </c>
+      <c r="I4">
+        <v>370925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5">
+        <v>400151</v>
+      </c>
+      <c r="H5">
+        <v>370905</v>
+      </c>
+      <c r="I5">
+        <v>370905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6">
+        <v>435924</v>
+      </c>
+      <c r="H6">
+        <v>370905</v>
+      </c>
+      <c r="I6">
+        <v>370905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7">
+        <v>256</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7">
+        <v>400164</v>
+      </c>
+      <c r="H7">
+        <v>370888</v>
+      </c>
+      <c r="I7">
+        <v>370905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>500610</v>
+      </c>
+      <c r="H8">
+        <v>738996</v>
+      </c>
+      <c r="I8">
+        <v>738996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9">
+        <v>415223</v>
+      </c>
+      <c r="H9">
+        <v>351703</v>
+      </c>
+      <c r="I9">
+        <v>351703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10">
+        <v>705405</v>
+      </c>
+      <c r="H10">
+        <v>775946</v>
+      </c>
+      <c r="I10">
+        <v>775946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11">
+        <v>506052</v>
+      </c>
+      <c r="H11">
+        <v>416305</v>
+      </c>
+      <c r="I11">
+        <v>416305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12">
+        <v>705405</v>
+      </c>
+      <c r="H12">
+        <v>775946</v>
+      </c>
+      <c r="I12">
+        <v>775946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13">
+        <v>506052</v>
+      </c>
+      <c r="H13">
+        <v>416305</v>
+      </c>
+      <c r="I13">
+        <v>416305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15">
+        <v>1193765</v>
+      </c>
+      <c r="H15">
+        <v>1193765</v>
+      </c>
+      <c r="I15">
+        <v>1193765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16">
+        <v>256</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16">
+        <v>770239</v>
+      </c>
+      <c r="H16">
+        <v>770239</v>
+      </c>
+      <c r="I16">
+        <v>770239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17">
+        <v>2658328</v>
+      </c>
+      <c r="H17">
+        <v>2658328</v>
+      </c>
+      <c r="I17">
+        <v>2658328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18">
+        <v>1193765</v>
+      </c>
+      <c r="H18">
+        <v>1193765</v>
+      </c>
+      <c r="I18">
+        <v>1193765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19">
+        <v>256</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19">
+        <v>767864</v>
+      </c>
+      <c r="H19">
+        <v>767864</v>
+      </c>
+      <c r="I19">
+        <v>767864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>1181137</v>
+      </c>
+      <c r="H20">
+        <v>1181137</v>
+      </c>
+      <c r="I20">
+        <v>1181137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21">
+        <v>923747</v>
+      </c>
+      <c r="H21">
+        <v>923747</v>
+      </c>
+      <c r="I21">
+        <v>923747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22">
+        <v>945150</v>
+      </c>
+      <c r="H22">
+        <v>945150</v>
+      </c>
+      <c r="I22">
+        <v>945150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23">
+        <v>945150</v>
+      </c>
+      <c r="H23">
+        <v>945150</v>
+      </c>
+      <c r="I23">
+        <v>945150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24">
+        <v>1225179</v>
+      </c>
+      <c r="H24">
+        <v>1225179</v>
+      </c>
+      <c r="I24">
+        <v>1225179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25">
+        <v>1225179</v>
+      </c>
+      <c r="H25">
+        <v>1225179</v>
+      </c>
+      <c r="I25">
+        <v>1225179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>2065692</v>
+      </c>
+      <c r="H26">
+        <v>1402657</v>
+      </c>
+      <c r="I26">
+        <v>1402657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27">
+        <v>720766</v>
+      </c>
+      <c r="H27">
+        <v>924673</v>
+      </c>
+      <c r="I27">
+        <v>924673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28">
+        <v>256</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28">
+        <v>577259</v>
+      </c>
+      <c r="H28">
+        <v>570827</v>
+      </c>
+      <c r="I28">
+        <v>570845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29">
+        <v>1342991</v>
+      </c>
+      <c r="H29">
+        <v>1342991</v>
+      </c>
+      <c r="I29">
+        <v>1342991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30">
+        <v>926494</v>
+      </c>
+      <c r="H30">
+        <v>926494</v>
+      </c>
+      <c r="I30">
+        <v>926494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31">
+        <v>256</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31">
+        <v>577265</v>
+      </c>
+      <c r="H31">
+        <v>570833</v>
+      </c>
+      <c r="I31">
+        <v>570851</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>668791</v>
+      </c>
+      <c r="H32">
+        <v>1047491</v>
+      </c>
+      <c r="I32">
+        <v>1047491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33">
+        <v>650265</v>
+      </c>
+      <c r="H33">
+        <v>1047491</v>
+      </c>
+      <c r="I33">
+        <v>1047491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34">
+        <v>705566</v>
+      </c>
+      <c r="H34">
+        <v>1093831</v>
+      </c>
+      <c r="I34">
+        <v>1093831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35">
+        <v>705278</v>
+      </c>
+      <c r="H35">
+        <v>1093541</v>
+      </c>
+      <c r="I35">
+        <v>1093541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36">
+        <v>703284</v>
+      </c>
+      <c r="H36">
+        <v>1091547</v>
+      </c>
+      <c r="I36">
+        <v>1091547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37">
+        <v>701476</v>
+      </c>
+      <c r="H37">
+        <v>1089738</v>
+      </c>
+      <c r="I37">
+        <v>1089738</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C37"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>